--- a/cgs-2100c/excel/DBGPACalculations.xlsx
+++ b/cgs-2100c/excel/DBGPACalculations.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Desktop/valencia-courses/cgs-2100c/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Desktop/valencia-courses/cgs-2100c/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F226EB75-20DD-1946-B73F-1053F67917D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B06B633-E7B2-5646-9DC2-8196EF3471DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" xr2:uid="{31294DA4-FDA1-5948-BDD6-9393A8F745D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GPA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,15 +30,102 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>No. of Credits</t>
+  </si>
+  <si>
+    <t>Letter Grade</t>
+  </si>
+  <si>
+    <t>Quality Points</t>
+  </si>
+  <si>
+    <t>GPA Calculation</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Grade Points</t>
+  </si>
+  <si>
+    <t>Lookup Table</t>
+  </si>
+  <si>
+    <t>Total Credits</t>
+  </si>
+  <si>
+    <t>Total Grade Points</t>
+  </si>
+  <si>
+    <t>Total Quality Points</t>
+  </si>
+  <si>
+    <t>Cumulative GPA</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,13 +148,228 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -78,6 +380,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A60E68F-7D24-9E4C-8CB1-5FD3028FB841}" name="Table2" displayName="Table2" ref="H2:I7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="H2:I7" xr:uid="{597DC886-5F2A-B749-8F38-A47E83F2994B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{69B175B4-64EF-7D47-85C9-A14A34CBC90B}" name="Letter Grade" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{A1749AB9-7807-1E48-AEEB-1EEDF90A9C3A}" name="Grade Points" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42AB8D44-CFAD-5B46-9A68-C2E270E9B35F}" name="Table3" displayName="Table3" ref="A2:F7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A2:F7" xr:uid="{AB0292A0-6078-1A41-926A-F776EF5BF36D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{51594B05-BFCE-D946-B867-55612D2B888A}" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{49A1E87C-8461-4349-8B34-1C176DA5BD13}" name="Course Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F4C3C80A-19BD-6644-ACD8-A9C05F5A181B}" name="No. of Credits" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{E54B0448-75AB-0645-8E78-727AC80D2C10}" name="Letter Grade" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{5EE5A938-527C-E34A-9E15-F84522A6E9D5}" name="Grade Points" dataDxfId="7">
+      <calculatedColumnFormula>VLOOKUP(D3,$H$3:$I$7,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{37DAC7D7-13B5-184B-BFFA-57B0018D7B33}" name="Quality Points" dataDxfId="6">
+      <calculatedColumnFormula>C3*E3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A5BF422B-CB63-D14D-94AE-600AA255C0B6}" name="Table4" displayName="Table4" ref="A9:B13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A9:B13" xr:uid="{06642FE8-3CE1-0C4D-AC21-E901FBACFC23}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{46392C50-2ACA-F245-A3A7-D77944BB3454}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9E4BAA7D-48FC-8047-9CB1-88A9DA339AE1}" name="Total" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,12 +726,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55E8C54-AE4D-2B4C-AB55-9B190EF2816F}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="13.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="17">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <f>VLOOKUP(D3,$H$3:$I$7,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <f>C3*E3</f>
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E7" si="0">VLOOKUP(D4,$H$3:$I$7,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <f>C4*E4</f>
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <f>C5*E5</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <f>C6*E6</f>
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <f>C7*E7</f>
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="34">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <f>SUM(C3:C7)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="34">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <f>SUM(E3:E7)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <f xml:space="preserve"> SUM(F3:F7)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="34">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <f xml:space="preserve"> B12 / B10</f>
+        <v>3.0625</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>